--- a/dados/historico/times/rodada_26/Corinthians.xlsx
+++ b/dados/historico/times/rodada_26/Corinthians.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -729,10 +729,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Matchweek 1</t>
-        </is>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -900,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -917,10 +915,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Matchweek 4</t>
-        </is>
+      <c r="E3" t="n">
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1088,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1105,10 +1101,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Matchweek 6</t>
-        </is>
+      <c r="E4" t="n">
+        <v>6</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1293,10 +1287,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Matchweek 8</t>
-        </is>
+      <c r="E5" t="n">
+        <v>8</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1464,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1481,10 +1473,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Matchweek 10</t>
-        </is>
+      <c r="E6" t="n">
+        <v>10</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1652,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1669,10 +1659,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Matchweek 13</t>
-        </is>
+      <c r="E7" t="n">
+        <v>13</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1840,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1857,10 +1845,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Matchweek 17</t>
-        </is>
+      <c r="E8" t="n">
+        <v>17</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2026,7 +2012,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2043,10 +2029,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Matchweek 19</t>
-        </is>
+      <c r="E9" t="n">
+        <v>19</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2214,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2231,10 +2215,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Matchweek 21</t>
-        </is>
+      <c r="E10" t="n">
+        <v>21</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2402,7 +2384,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2419,10 +2401,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Matchweek 22</t>
-        </is>
+      <c r="E11" t="n">
+        <v>22</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2588,7 +2568,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2605,10 +2585,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Matchweek 15</t>
-        </is>
+      <c r="E12" t="n">
+        <v>15</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2776,7 +2754,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2793,10 +2771,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Matchweek 24</t>
-        </is>
+      <c r="E13" t="n">
+        <v>24</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2962,7 +2938,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2979,10 +2955,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Matchweek 26</t>
-        </is>
+      <c r="E14" t="n">
+        <v>26</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -3148,7 +3122,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3165,10 +3139,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Matchweek 5</t>
-        </is>
+      <c r="E15" t="n">
+        <v>5</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3336,7 +3308,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3353,10 +3325,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Matchweek 3</t>
-        </is>
+      <c r="E16" t="n">
+        <v>3</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3524,7 +3494,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3541,10 +3511,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Matchweek 7</t>
-        </is>
+      <c r="E17" t="n">
+        <v>7</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3712,7 +3680,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3729,10 +3697,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Matchweek 23</t>
-        </is>
+      <c r="E18" t="n">
+        <v>23</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3900,7 +3866,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3917,10 +3883,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Matchweek 12</t>
-        </is>
+      <c r="E19" t="n">
+        <v>12</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -4088,7 +4052,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4105,10 +4069,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Matchweek 14</t>
-        </is>
+      <c r="E20" t="n">
+        <v>14</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -4274,7 +4236,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4291,10 +4253,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Matchweek 25</t>
-        </is>
+      <c r="E21" t="n">
+        <v>25</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4460,7 +4420,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4477,10 +4437,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Matchweek 18</t>
-        </is>
+      <c r="E22" t="n">
+        <v>18</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -4646,16 +4604,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>2023-08-19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4663,14 +4621,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Matchweek 11</t>
-        </is>
+      <c r="E23" t="n">
+        <v>20</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4680,14 +4636,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -4695,34 +4651,32 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="N23" t="n">
-        <v>51</v>
-      </c>
-      <c r="O23" t="n">
-        <v>12499</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R23" t="n">
-        <v>33.3</v>
+        <v>42.1</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -4731,22 +4685,22 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
         <v>50</v>
@@ -4755,95 +4709,95 @@
         <v>0</v>
       </c>
       <c r="AF23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>6818</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>2458</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="n">
         <v>1.4</v>
       </c>
-      <c r="AG23" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>7207</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>2170</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0.7</v>
-      </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AM23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB23" t="n">
         <v>9</v>
       </c>
-      <c r="AN23" t="n">
-        <v>33</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>10</v>
-      </c>
       <c r="BC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-08-19</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4851,14 +4805,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Matchweek 20</t>
-        </is>
+      <c r="E24" t="n">
+        <v>11</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4868,14 +4820,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -4883,32 +4835,34 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="N24" t="n">
-        <v>45</v>
-      </c>
-      <c r="O24" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="O24" t="n">
+        <v>12499</v>
+      </c>
       <c r="P24" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q24" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>42.1</v>
+        <v>33.3</v>
       </c>
       <c r="S24" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -4917,22 +4871,22 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z24" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD24" t="n">
         <v>50</v>
@@ -4941,86 +4895,86 @@
         <v>0</v>
       </c>
       <c r="AF24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>7207</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>2170</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
         <v>0.7</v>
       </c>
-      <c r="AG24" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>6818</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>2458</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AL24" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AM24" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AN24" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AO24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AR24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AU24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV24" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX24" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BA24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD24" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5037,10 +4991,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Matchweek 16</t>
-        </is>
+      <c r="E25" t="n">
+        <v>16</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5208,7 +5160,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5225,10 +5177,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Matchweek 2</t>
-        </is>
+      <c r="E26" t="n">
+        <v>2</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5396,7 +5346,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5413,10 +5363,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Matchweek 9</t>
-        </is>
+      <c r="E27" t="n">
+        <v>9</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>

--- a/dados/historico/times/rodada_26/Corinthians.xlsx
+++ b/dados/historico/times/rodada_26/Corinthians.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>338</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>341</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>11</v>
+        <v>345</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>18</v>
+        <v>350</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>23</v>
+        <v>353</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>27</v>
+        <v>355</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>30</v>
+        <v>357</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>32</v>
+        <v>358</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>34</v>
+        <v>360</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>35</v>
+        <v>361</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>39</v>
+        <v>363</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>15</v>
+        <v>374</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>15</v>
+        <v>405</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3</v>
+        <v>443</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>12</v>
+        <v>502</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
